--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA9EC6-50D7-B243-96C5-FDD9B9D185AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBDBC19-B042-C541-895B-A353D385F6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="1" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図_Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="クラス図_Q2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -22,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,6 +956,975 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93060B-6A16-8A4B-A636-D444FFBD5A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="495300" y="368300"/>
+          <a:ext cx="1320800" cy="2755900"/>
+          <a:chOff x="495300" y="1955800"/>
+          <a:chExt cx="1320800" cy="2881168"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC2113D-3DBD-0C4D-BFD6-E6BC7C200FF4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="1955800"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Car</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD297B32-FDE5-3841-B61D-CA6CB520B885}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2298700"/>
+            <a:ext cx="1320800" cy="1515918"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>定員</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>価格</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F6CC8E-CA08-7149-9A50-1814BA47F70D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="3820391"/>
+            <a:ext cx="1320800" cy="1016577"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>アクセル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>ブレーキ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06680769-5B34-9F4C-B55B-DC20AE320D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2971800" y="342900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FB6386-CD35-2E41-BE36-E9EDD747F873}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Honda</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCFED1E-5CA3-0946-AB8C-B40A731F02C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AE69ED-2AC9-FD4F-81E5-F120913E6860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="1231900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6334B7-153F-D74A-9E4C-F23BBD740719}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Nissan</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E162A4D7-F5DC-8E4A-9682-720D264B2310}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="カギ線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D297D49-6A8C-B049-AD44-23FA92ABBA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1816100" y="857250"/>
+          <a:ext cx="1155700" cy="564046"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F0246-2E84-6B40-ADFE-A662F0431C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1421296"/>
+          <a:ext cx="1168400" cy="324954"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48913"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B365F006-C3CB-BD43-BF59-3B8B9364C7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1421296"/>
+          <a:ext cx="1168400" cy="1401340"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9210FE41-0A85-E745-BD4A-EF291A834AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="2133600"/>
+          <a:ext cx="1943100" cy="1803400"/>
+          <a:chOff x="2984500" y="2133600"/>
+          <a:chExt cx="1320800" cy="1346200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="グループ化 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A9D419-6416-B040-BBCA-2C9A34E0B587}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2133600"/>
+            <a:ext cx="1320800" cy="685800"/>
+            <a:chOff x="2273300" y="228600"/>
+            <a:chExt cx="1320800" cy="685800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB657708-9F11-3A4D-87D5-8AB05E6A61C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="228600"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                <a:t>Ferrari</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D598696-917A-034D-8AAA-CE1BB9879191}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="571500"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:t>フロント車高</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F35CB3-51EE-564A-8522-057DB52A531F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2819400"/>
+            <a:ext cx="1320800" cy="660400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトアップ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトダウン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1263,6 +2229,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E1E06-298B-A34E-B940-D4194CDD9E63}">
   <dimension ref="B1"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A34D4-1D46-8A48-941C-D52B04319F4B}">
+  <dimension ref="B1"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBDBC19-B042-C541-895B-A353D385F6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6918C84-C96C-F546-B61F-55C80F31F4E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="1" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図_Q1" sheetId="1" r:id="rId1"/>
-    <sheet name="クラス図_Q2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -956,975 +955,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93060B-6A16-8A4B-A636-D444FFBD5A67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="495300" y="368300"/>
-          <a:ext cx="1320800" cy="2755900"/>
-          <a:chOff x="495300" y="1955800"/>
-          <a:chExt cx="1320800" cy="2881168"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="テキスト ボックス 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC2113D-3DBD-0C4D-BFD6-E6BC7C200FF4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="495300" y="1955800"/>
-            <a:ext cx="1320800" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>Car</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="テキスト ボックス 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD297B32-FDE5-3841-B61D-CA6CB520B885}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="495300" y="2298700"/>
-            <a:ext cx="1320800" cy="1515918"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>名前</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>定員</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>価格</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>加速</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="テキスト ボックス 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F6CC8E-CA08-7149-9A50-1814BA47F70D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="495300" y="3820391"/>
-            <a:ext cx="1320800" cy="1016577"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>アクセル</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>()</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>ブレーキ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>()</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06680769-5B34-9F4C-B55B-DC20AE320D2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2971800" y="342900"/>
-          <a:ext cx="1320800" cy="685800"/>
-          <a:chOff x="2273300" y="228600"/>
-          <a:chExt cx="1320800" cy="685800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="テキスト ボックス 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FB6386-CD35-2E41-BE36-E9EDD747F873}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2273300" y="228600"/>
-            <a:ext cx="1320800" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>Honda</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="テキスト ボックス 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCFED1E-5CA3-0946-AB8C-B40A731F02C7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2273300" y="571500"/>
-            <a:ext cx="1320800" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AE69ED-2AC9-FD4F-81E5-F120913E6860}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2984500" y="1231900"/>
-          <a:ext cx="1320800" cy="685800"/>
-          <a:chOff x="2273300" y="228600"/>
-          <a:chExt cx="1320800" cy="685800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="テキスト ボックス 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6334B7-153F-D74A-9E4C-F23BBD740719}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2273300" y="228600"/>
-            <a:ext cx="1320800" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>Nissan</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E162A4D7-F5DC-8E4A-9682-720D264B2310}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2273300" y="571500"/>
-            <a:ext cx="1320800" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="カギ線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D297D49-6A8C-B049-AD44-23FA92ABBA4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1816100" y="857250"/>
-          <a:ext cx="1155700" cy="564046"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F0246-2E84-6B40-ADFE-A662F0431C55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1816100" y="1421296"/>
-          <a:ext cx="1168400" cy="324954"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 48913"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>79436</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B365F006-C3CB-BD43-BF59-3B8B9364C7B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="14" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1816100" y="1421296"/>
-          <a:ext cx="1168400" cy="1401340"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9210FE41-0A85-E745-BD4A-EF291A834AAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2984500" y="2133600"/>
-          <a:ext cx="1943100" cy="1803400"/>
-          <a:chOff x="2984500" y="2133600"/>
-          <a:chExt cx="1320800" cy="1346200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="12" name="グループ化 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A9D419-6416-B040-BBCA-2C9A34E0B587}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2984500" y="2133600"/>
-            <a:ext cx="1320800" cy="685800"/>
-            <a:chOff x="2273300" y="228600"/>
-            <a:chExt cx="1320800" cy="685800"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="テキスト ボックス 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB657708-9F11-3A4D-87D5-8AB05E6A61C0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2273300" y="228600"/>
-              <a:ext cx="1320800" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-                <a:t>Ferrari</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="テキスト ボックス 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D598696-917A-034D-8AAA-CE1BB9879191}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2273300" y="571500"/>
-              <a:ext cx="1320800" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-                <a:t>フロント車高</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="テキスト ボックス 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F35CB3-51EE-564A-8522-057DB52A531F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2984500" y="2819400"/>
-            <a:ext cx="1320800" cy="660400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>リフトアップ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>()</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>リフトダウン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>()</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2229,24 +1259,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E1E06-298B-A34E-B940-D4194CDD9E63}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A34D4-1D46-8A48-941C-D52B04319F4B}">
-  <dimension ref="B1"/>
-  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6918C84-C96C-F546-B61F-55C80F31F4E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBDBC19-B042-C541-895B-A353D385F6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="1" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図_Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="クラス図_Q2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -955,6 +956,975 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93060B-6A16-8A4B-A636-D444FFBD5A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="495300" y="368300"/>
+          <a:ext cx="1320800" cy="2755900"/>
+          <a:chOff x="495300" y="1955800"/>
+          <a:chExt cx="1320800" cy="2881168"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC2113D-3DBD-0C4D-BFD6-E6BC7C200FF4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="1955800"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Car</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD297B32-FDE5-3841-B61D-CA6CB520B885}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2298700"/>
+            <a:ext cx="1320800" cy="1515918"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>定員</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>価格</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F6CC8E-CA08-7149-9A50-1814BA47F70D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="3820391"/>
+            <a:ext cx="1320800" cy="1016577"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>アクセル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>ブレーキ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06680769-5B34-9F4C-B55B-DC20AE320D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2971800" y="342900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FB6386-CD35-2E41-BE36-E9EDD747F873}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Honda</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCFED1E-5CA3-0946-AB8C-B40A731F02C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AE69ED-2AC9-FD4F-81E5-F120913E6860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="1231900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6334B7-153F-D74A-9E4C-F23BBD740719}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Nissan</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E162A4D7-F5DC-8E4A-9682-720D264B2310}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="カギ線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D297D49-6A8C-B049-AD44-23FA92ABBA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1816100" y="857250"/>
+          <a:ext cx="1155700" cy="564046"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F0246-2E84-6B40-ADFE-A662F0431C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1421296"/>
+          <a:ext cx="1168400" cy="324954"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48913"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B365F006-C3CB-BD43-BF59-3B8B9364C7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1421296"/>
+          <a:ext cx="1168400" cy="1401340"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9210FE41-0A85-E745-BD4A-EF291A834AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="2133600"/>
+          <a:ext cx="1943100" cy="1803400"/>
+          <a:chOff x="2984500" y="2133600"/>
+          <a:chExt cx="1320800" cy="1346200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="グループ化 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A9D419-6416-B040-BBCA-2C9A34E0B587}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2133600"/>
+            <a:ext cx="1320800" cy="685800"/>
+            <a:chOff x="2273300" y="228600"/>
+            <a:chExt cx="1320800" cy="685800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB657708-9F11-3A4D-87D5-8AB05E6A61C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="228600"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                <a:t>Ferrari</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D598696-917A-034D-8AAA-CE1BB9879191}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="571500"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:t>フロント車高</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F35CB3-51EE-564A-8522-057DB52A531F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2819400"/>
+            <a:ext cx="1320800" cy="660400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトアップ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトダウン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1259,6 +2229,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E1E06-298B-A34E-B940-D4194CDD9E63}">
   <dimension ref="B1"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A34D4-1D46-8A48-941C-D52B04319F4B}">
+  <dimension ref="B1"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBDBC19-B042-C541-895B-A353D385F6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FDB3FB-4BBE-5C4A-927B-7AAB47B02710}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="1" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="2" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図_Q1" sheetId="1" r:id="rId1"/>
     <sheet name="クラス図_Q2" sheetId="2" r:id="rId2"/>
+    <sheet name="クラス図_Q3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -1857,6 +1858,975 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F35CB3-51EE-564A-8522-057DB52A531F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2819400"/>
+            <a:ext cx="1320800" cy="660400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトアップ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトダウン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C60FCE-2A7D-EF40-97DF-68330D5D91E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="495300" y="368300"/>
+          <a:ext cx="1320800" cy="2755900"/>
+          <a:chOff x="495300" y="1955800"/>
+          <a:chExt cx="1320800" cy="2881168"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16817FE9-96B4-024C-A29C-A07108D90245}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="1955800"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Car</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3393B974-6312-C543-B482-76B98067B756}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2298700"/>
+            <a:ext cx="1320800" cy="1515918"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>定員</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>価格</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C87569-D918-C04D-9D3C-95D2E38F2A6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="3820391"/>
+            <a:ext cx="1320800" cy="1016577"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>アクセル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>ブレーキ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C773CC1-F8EB-6A42-A75E-96F6D6CA24FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2971800" y="342900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7816C4A2-E48D-5A4C-9D8D-0ED7EB3C9F64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Honda</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46293535-CD38-AB4F-B739-776D5A381F3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB00F31-C172-274F-A1FF-3D0393C226B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="1231900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683767DB-F183-5E4C-8F48-BF9BFC618813}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Nissan</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC72431-D243-FE41-9745-6FAE189A499B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7A2B6C-AFAA-7C4A-97FD-E7B09A8394B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1816100" y="857250"/>
+          <a:ext cx="1155700" cy="564046"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEE44E9-EE41-DC47-AD3C-49D2420E8F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1421296"/>
+          <a:ext cx="1168400" cy="324954"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48913"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8AFA8C-09AB-EA43-BB47-4CB9280321B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1421296"/>
+          <a:ext cx="1168400" cy="1401340"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F626FC-68E0-E747-90A4-0CB421A8C90F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="2133600"/>
+          <a:ext cx="1943100" cy="1803400"/>
+          <a:chOff x="2984500" y="2133600"/>
+          <a:chExt cx="1320800" cy="1346200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="グループ化 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF364423-1F9C-2046-AE48-722C8FE36BDA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2133600"/>
+            <a:ext cx="1320800" cy="685800"/>
+            <a:chOff x="2273300" y="228600"/>
+            <a:chExt cx="1320800" cy="685800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="テキスト ボックス 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C26DF7-ADFC-7740-B1F7-FB4613236859}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="228600"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                <a:t>Ferrari</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="テキスト ボックス 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F836310-51BD-BB4E-B76B-F45CDC5B3083}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="571500"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:t>フロント車高</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0BA4B4-EA9C-B542-AD7F-8B2A9D2867F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2247,6 +3217,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A34D4-1D46-8A48-941C-D52B04319F4B}">
   <dimension ref="B1"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32DCD6-7A3F-1D45-B251-BBD12244BB03}">
+  <dimension ref="B1"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FDB3FB-4BBE-5C4A-927B-7AAB47B02710}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91D61B-E973-4A40-BCAE-5F3CACE67EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="2" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="20120" windowHeight="15800" activeTab="4" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図_Q1" sheetId="1" r:id="rId1"/>
     <sheet name="クラス図_Q2" sheetId="2" r:id="rId2"/>
     <sheet name="クラス図_Q3" sheetId="3" r:id="rId3"/>
+    <sheet name="クラス図_Q4" sheetId="4" r:id="rId4"/>
+    <sheet name="クラス図_Q5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -2895,6 +2897,2207 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB0FE27-C59A-6848-A27A-D31DF0EDA1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="495300" y="368300"/>
+          <a:ext cx="1320800" cy="2755900"/>
+          <a:chOff x="495300" y="1955800"/>
+          <a:chExt cx="1320800" cy="2881168"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B36D2B7-CDDB-6B41-9878-944061D18196}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="1955800"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Car</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E6EC76-93A6-E741-86D7-30D1EEE32BEC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2298700"/>
+            <a:ext cx="1320800" cy="1688523"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>定員</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>乗員数</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>価格</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316135C5-F4B3-D64A-9A6B-A55C834BB6A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="3987223"/>
+            <a:ext cx="1320800" cy="849745"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>アクセル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>ブレーキ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADD7C94-4E13-6348-8217-185E0EAEEF5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2971800" y="342900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906489EC-1AB3-E249-8CAA-E37F42BBC31E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Honda</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F97B777-0578-D045-9A4D-912BFB0281D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F64E835-17F9-3D4B-945E-AB6199061671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="1371600"/>
+          <a:ext cx="1320800" cy="901700"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="901700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD6D8DB-F92A-2C4A-AE7D-C435D72FAEE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Nissan</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBFB1AF-6BB3-1140-91BA-09DD4B79960E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="558800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>*0.6</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C559DE-2A82-344C-9032-89E5FC89908E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1816100" y="857250"/>
+          <a:ext cx="1155700" cy="646596"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDF0A21-C92F-B84F-B4E0-68E93D426752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1503846"/>
+          <a:ext cx="1168400" cy="490054"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57544704-E252-9D46-84CB-21327EBAABED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1503846"/>
+          <a:ext cx="1168400" cy="1839489"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E39F7DA-717E-B54E-80EB-A16BAE49B480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="2654300"/>
+          <a:ext cx="1943100" cy="1803400"/>
+          <a:chOff x="2984500" y="2133600"/>
+          <a:chExt cx="1320800" cy="1346200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="グループ化 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F78140-9A99-BE49-A76B-131E3D64BD93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2133600"/>
+            <a:ext cx="1320800" cy="685800"/>
+            <a:chOff x="2273300" y="228600"/>
+            <a:chExt cx="1320800" cy="685800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="テキスト ボックス 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF89E0BF-9CBB-C842-B14D-8122821920F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="228600"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                <a:t>Ferrari</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="テキスト ボックス 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB87A45-2C3F-B049-9011-30501CA547A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="571500"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:t>フロント車高</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42747C0-BD00-4440-BE79-F66E095946EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2819400"/>
+            <a:ext cx="1320800" cy="660400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトアップ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトダウン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFAB0D3-FE2C-964D-86A0-064EC8D326B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="495300" y="368300"/>
+          <a:ext cx="1320800" cy="2755900"/>
+          <a:chOff x="495300" y="1955800"/>
+          <a:chExt cx="1320800" cy="2881168"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C907D6-6C65-D14E-9299-A90598E37BE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="1955800"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Car</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE35A26-DEB5-5044-93F3-0AAD243CF71C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2298700"/>
+            <a:ext cx="1320800" cy="1688523"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>定員</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>乗員数</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>価格</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE7CEC7-58F1-534E-97FC-714BCA503BF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="3987223"/>
+            <a:ext cx="1320800" cy="849745"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>アクセル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>ブレーキ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF591D64-25E0-614C-8BB8-B8B92A0F45FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2971800" y="342900"/>
+          <a:ext cx="1320800" cy="685800"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139CF84A-7EE9-2747-BC94-B94C11476BEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Honda</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9E005C-E487-C64F-A0FA-623BCD7806DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7357591-26C5-F543-B0E4-AF5932F5F78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="1371600"/>
+          <a:ext cx="1320800" cy="901700"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="901700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DB7F87-7CD2-1F48-AD51-47472804A2AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Nissan</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1B2DDD-5793-3245-B550-3426A5521F94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="558800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>*0.6</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D7CBFE-6FA1-5248-B6FA-FF34D19FFE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1816100" y="857250"/>
+          <a:ext cx="1155700" cy="646596"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6CDA31-99AD-A446-81AC-4A6D26600B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1503846"/>
+          <a:ext cx="1168400" cy="490054"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D2E7E8-787C-2E4B-802D-78CBBA69231D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1503846"/>
+          <a:ext cx="1168400" cy="1839489"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBBF0E8-A870-A24E-94C6-702D1E83A478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2984500" y="2654300"/>
+          <a:ext cx="1943100" cy="1803400"/>
+          <a:chOff x="2984500" y="2133600"/>
+          <a:chExt cx="1320800" cy="1346200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="グループ化 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B0FE0B-0BD7-814D-BAD7-EF2FFCEB1236}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2133600"/>
+            <a:ext cx="1320800" cy="685800"/>
+            <a:chOff x="2273300" y="228600"/>
+            <a:chExt cx="1320800" cy="685800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="テキスト ボックス 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4362FDFE-7F77-FB44-A0F7-73627D7FCD36}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="228600"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                <a:t>Ferrari</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="テキスト ボックス 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07549E69-252D-1E40-BF9E-E50AD865974D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2273300" y="571500"/>
+              <a:ext cx="1320800" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:t>フロント車高</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17D5641-7EEC-3B41-8FDF-27217A708382}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2984500" y="2819400"/>
+            <a:ext cx="1320800" cy="660400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトアップ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>リフトダウン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A216D77-C2FF-1444-B76C-7007366CD99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2971800" y="4914900"/>
+          <a:ext cx="1320800" cy="1016000"/>
+          <a:chOff x="2273300" y="228600"/>
+          <a:chExt cx="1320800" cy="1016000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキスト ボックス 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE3D790-2C8A-3349-86AD-6954866200C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="228600"/>
+            <a:ext cx="1320800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Toyota</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E083361-7FEC-1C45-9393-919DBA21A2A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2273300" y="571500"/>
+            <a:ext cx="1320800" cy="673100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>加速</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>価格</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>*0.3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061B4E9D-3BDF-C042-A0EE-D93A533521A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="1503846"/>
+          <a:ext cx="1155700" cy="4090504"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3235,6 +5438,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32DCD6-7A3F-1D45-B251-BBD12244BB03}">
   <dimension ref="B1"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8212759-0AB8-B846-A9F4-3A6B7AA7AEFC}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79A997-4F4A-334B-A6B0-F6A732FEB7F3}">
+  <dimension ref="B1"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
